--- a/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/mail_image.xlsx
+++ b/ja/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/mail_image.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\ja\development_tools\testing_framework\guide\development_guide\05_UnitTestGuide\02_RequestUnitTest\_image\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB3C13B-BC0E-42B6-AEF4-38FFDD47F63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="15060" windowHeight="15300" activeTab="1"/>
+    <workbookView xWindow="9660" yWindow="1245" windowWidth="16290" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -62,6 +81,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -82,7 +109,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -146,7 +179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2"/>
+        <xdr:cNvPr id="1026" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -210,7 +249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Rectangle 3"/>
+        <xdr:cNvPr id="1027" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -282,7 +327,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="Rectangle 4"/>
+        <xdr:cNvPr id="1028" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -359,7 +410,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="Text Box 5"/>
+        <xdr:cNvPr id="1029" name="Text Box 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -420,7 +477,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6" descr="MC900432614"/>
+        <xdr:cNvPr id="1030" name="Picture 6" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -460,7 +523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="Picture 7" descr="MC900431536[1]"/>
+        <xdr:cNvPr id="1031" name="Picture 7" descr="MC900431536[1]">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -500,7 +569,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="Text Box 8"/>
+        <xdr:cNvPr id="1032" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -575,7 +650,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1033" name="Rectangle 9"/>
+        <xdr:cNvPr id="1033" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -654,7 +735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="AutoShape 10"/>
+        <xdr:cNvPr id="1034" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -794,7 +881,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1035" name="AutoShape 11"/>
+        <xdr:cNvPr id="1035" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="0" idx="3"/>
@@ -837,7 +930,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="Rectangle 12"/>
+        <xdr:cNvPr id="1036" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -932,7 +1031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1037" name="AutoShape 13"/>
+        <xdr:cNvPr id="1037" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1035,7 +1140,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="AutoShape 14"/>
+        <xdr:cNvPr id="1038" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1127,7 +1238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1039" name="AutoShape 15"/>
+        <xdr:cNvPr id="1039" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1219,7 +1336,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="Text Box 16"/>
+        <xdr:cNvPr id="1040" name="Text Box 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1278,7 +1401,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1041" name="AutoShape 17"/>
+        <xdr:cNvPr id="1041" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1044" idx="3"/>
@@ -1321,7 +1450,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1042" name="AutoShape 18"/>
+        <xdr:cNvPr id="1042" name="AutoShape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1038" idx="4"/>
@@ -1365,7 +1500,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1043" name="AutoShape 19"/>
+        <xdr:cNvPr id="1043" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1036" idx="3"/>
@@ -1409,7 +1550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="Rectangle 20"/>
+        <xdr:cNvPr id="1044" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1488,7 +1635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1045" name="AutoShape 21"/>
+        <xdr:cNvPr id="1045" name="AutoShape 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -1532,7 +1685,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="Text Box 22"/>
+        <xdr:cNvPr id="1046" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1593,7 +1752,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1047" name="AutoShape 23"/>
+        <xdr:cNvPr id="1047" name="AutoShape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1036" idx="3"/>
@@ -1637,7 +1802,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1048" name="AutoShape 24"/>
+        <xdr:cNvPr id="1048" name="AutoShape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1036" idx="3"/>
@@ -1681,7 +1852,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1049" name="AutoShape 25"/>
+        <xdr:cNvPr id="1049" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1037" idx="4"/>
@@ -1725,7 +1902,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1050" name="AutoShape 26"/>
+        <xdr:cNvPr id="1050" name="AutoShape 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="1039" idx="4"/>
@@ -1763,26 +1946,32 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="AutoShape 1"/>
+        <xdr:cNvPr id="2049" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4572000" y="1428750"/>
-          <a:ext cx="3857625" cy="1428750"/>
+          <a:off x="4572000" y="1428749"/>
+          <a:ext cx="3857625" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1827,26 +2016,32 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="AutoShape 2"/>
+        <xdr:cNvPr id="2050" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="714375" y="1428750"/>
-          <a:ext cx="2571750" cy="1428750"/>
+          <a:off x="714375" y="1428749"/>
+          <a:ext cx="2571750" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1891,8 +2086,8 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
@@ -1902,15 +2097,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Rectangle 3"/>
+        <xdr:cNvPr id="2051" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2143125" y="857250"/>
-          <a:ext cx="3571875" cy="2428875"/>
+          <a:off x="2143125" y="742950"/>
+          <a:ext cx="3571875" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,8 +2164,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -1974,15 +2175,21 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="Rectangle 4"/>
+        <xdr:cNvPr id="2052" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="428625" y="857250"/>
-          <a:ext cx="1428750" cy="2428875"/>
+          <a:off x="428625" y="742950"/>
+          <a:ext cx="1428750" cy="2543175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2051,7 +2258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2053" name="Text Box 5"/>
+        <xdr:cNvPr id="2053" name="Text Box 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2112,7 +2325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6" descr="MC900432614"/>
+        <xdr:cNvPr id="2054" name="Picture 6" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2152,7 +2371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7" descr="MC900431536[1]"/>
+        <xdr:cNvPr id="2055" name="Picture 7" descr="MC900431536[1]">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2188,11 +2413,17 @@
       <xdr:col>39</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2056" name="Text Box 8"/>
+        <xdr:cNvPr id="2056" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2200,7 +2431,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4943475" y="2428875"/>
-          <a:ext cx="676275" cy="428625"/>
+          <a:ext cx="676275" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,7 +2482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2057" name="Rectangle 9"/>
+        <xdr:cNvPr id="2057" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2292,7 +2529,7 @@
               <a:ea typeface="メイリオ"/>
               <a:cs typeface="メイリオ"/>
             </a:rPr>
-            <a:t>JavaMail</a:t>
+            <a:t>Jakarta</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2308,7 +2545,7 @@
               <a:ea typeface="メイリオ"/>
               <a:cs typeface="メイリオ"/>
             </a:rPr>
-            <a:t>API</a:t>
+            <a:t>Mail</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2330,7 +2567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2058" name="AutoShape 10"/>
+        <xdr:cNvPr id="2058" name="AutoShape 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2470,7 +2713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2059" name="AutoShape 11"/>
+        <xdr:cNvPr id="2059" name="AutoShape 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="0" idx="3"/>
@@ -2513,7 +2762,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2060" name="Rectangle 12"/>
+        <xdr:cNvPr id="2060" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2597,26 +2852,32 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2061" name="AutoShape 13"/>
+        <xdr:cNvPr id="2063" name="AutoShape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3571875" y="1143000"/>
-          <a:ext cx="857250" cy="571500"/>
+          <a:off x="3571875" y="2486025"/>
+          <a:ext cx="857250" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2649,24 +2910,13 @@
               <a:ea typeface="メイリオ"/>
               <a:cs typeface="メイリオ"/>
             </a:rPr>
-            <a:t>メール送信</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>要求</a:t>
-          </a:r>
+            <a:t>添付ファイル</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -2698,35 +2948,539 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2062" name="AutoShape 14"/>
+        <xdr:cNvPr id="2064" name="Text Box 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7286625" y="2571750"/>
+          <a:ext cx="857250" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>メール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2065" name="AutoShape 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2068" idx="3"/>
+          <a:endCxn id="2060" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1428750" y="2143125"/>
+          <a:ext cx="1000125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="15875">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2066" name="AutoShape 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2062" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4429125" y="2143125"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2067" name="AutoShape 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2060" idx="3"/>
+          <a:endCxn id="2062" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3000375" y="2143125"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2068" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3571875" y="1857375"/>
-          <a:ext cx="857250" cy="571500"/>
+          <a:off x="857250" y="1714500"/>
+          <a:ext cx="571500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="27432" bIns="36576" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>業務</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2071" name="AutoShape 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2060" idx="3"/>
+          <a:endCxn id="2061" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3000375" y="1428750"/>
+          <a:ext cx="571500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2072" name="AutoShape 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2060" idx="3"/>
+          <a:endCxn id="2063" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3000375" y="2143125"/>
+          <a:ext cx="571500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2073" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2061" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4429125" y="1428750"/>
+          <a:ext cx="571500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2074" name="AutoShape 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="2063" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="2143125"/>
+          <a:ext cx="571500" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="lg" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2062" name="AutoShape 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3571875" y="1752600"/>
+          <a:ext cx="857250" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
             <a:gd name="adj" fmla="val 25000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2792,33 +3546,41 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2063" name="AutoShape 15"/>
+        <xdr:cNvPr id="2061" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3571875" y="2571750"/>
-          <a:ext cx="857250" cy="571500"/>
+          <a:off x="3571875" y="1028700"/>
+          <a:ext cx="857250" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
             <a:gd name="adj" fmla="val 25000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="000000"/>
@@ -2844,13 +3606,24 @@
               <a:ea typeface="メイリオ"/>
               <a:cs typeface="メイリオ"/>
             </a:rPr>
-            <a:t>添付ファイル</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+            <a:t>メール送信</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ"/>
+              <a:ea typeface="メイリオ"/>
+              <a:cs typeface="メイリオ"/>
+            </a:rPr>
+            <a:t>要求</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -2880,456 +3653,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2064" name="Text Box 16"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7286625" y="2571750"/>
-          <a:ext cx="857250" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>メール</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2065" name="AutoShape 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2068" idx="3"/>
-          <a:endCxn id="2060" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1428750" y="2143125"/>
-          <a:ext cx="1000125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="15875">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2066" name="AutoShape 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2062" idx="4"/>
-          <a:endCxn id="0" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4429125" y="2143125"/>
-          <a:ext cx="571500" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2067" name="AutoShape 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2060" idx="3"/>
-          <a:endCxn id="2062" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3000375" y="2143125"/>
-          <a:ext cx="571500" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2068" name="Rectangle 20"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="857250" y="1714500"/>
-          <a:ext cx="571500" cy="857250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="36576" rIns="27432" bIns="36576" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>業務</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ"/>
-              <a:ea typeface="メイリオ"/>
-              <a:cs typeface="メイリオ"/>
-            </a:rPr>
-            <a:t>処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2071" name="AutoShape 23"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2060" idx="3"/>
-          <a:endCxn id="2061" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="3000375" y="1428750"/>
-          <a:ext cx="571500" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2072" name="AutoShape 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2060" idx="3"/>
-          <a:endCxn id="2063" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3000375" y="2143125"/>
-          <a:ext cx="571500" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="lg"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2073" name="AutoShape 25"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2061" idx="4"/>
-          <a:endCxn id="0" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4429125" y="1428750"/>
-          <a:ext cx="571500" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2074" name="AutoShape 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="2063" idx="4"/>
-          <a:endCxn id="0" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4429125" y="2143125"/>
-          <a:ext cx="571500" cy="714375"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="sysDot"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="lg" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3371,7 +3699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3403,9 +3731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3437,6 +3783,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3612,14 +3976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AV48" sqref="AV48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3630,14 +3994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC38" sqref="BC38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO32" sqref="BO32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78700000000000003" right="0.78700000000000003" top="0.98399999999999999" bottom="0.98399999999999999" header="0.51200000000000001" footer="0.51200000000000001"/>
